--- a/GameIdea/枪械.xlsx
+++ b/GameIdea/枪械.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="21285" windowHeight="11880" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="21285" windowHeight="11880" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="枪参数" sheetId="1" r:id="rId1"/>
     <sheet name="枪图" sheetId="2" r:id="rId2"/>
     <sheet name="设计" sheetId="3" r:id="rId3"/>
     <sheet name="系统" sheetId="4" r:id="rId4"/>
+    <sheet name="属性" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="219">
   <si>
     <t>型号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -823,6 +824,74 @@
   </si>
   <si>
     <t>L85A1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{装备}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>penetrate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp排行榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合军演（工会性质）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时抽奖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>军队工厂（生产零件什么的）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缉毒行动之类的行动（掉落某些特有物件），可以限制武器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工会</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -883,12 +952,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -905,7 +980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,6 +997,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,6 +1228,57 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="肘形连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="3000375"/>
+          <a:ext cx="2647950" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 89568"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1705,7 +1837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
@@ -1735,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2153,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2173,9 +2305,6 @@
       <c r="B1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -2184,12 +2313,6 @@
       <c r="B2" t="s">
         <v>87</v>
       </c>
-      <c r="F2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -2198,44 +2321,8 @@
       <c r="B3" t="s">
         <v>88</v>
       </c>
-      <c r="F3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="F7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" t="s">
-        <v>170</v>
-      </c>
       <c r="K7" t="s">
         <v>92</v>
       </c>
@@ -2259,12 +2346,6 @@
       <c r="A8" t="s">
         <v>82</v>
       </c>
-      <c r="F8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -2276,12 +2357,6 @@
       <c r="D9" t="s">
         <v>190</v>
       </c>
-      <c r="F9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G9" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
@@ -2420,6 +2495,556 @@
       <c r="D37" t="s">
         <v>189</v>
       </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="6"/>
+    </row>
+    <row r="34" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="5:18" x14ac:dyDescent="0.15">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
